--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1685045317820958</v>
+        <v>-0.1719888661583355</v>
       </c>
       <c r="D2">
-        <v>0.8662066743946775</v>
+        <v>0.8650185693849215</v>
       </c>
       <c r="E2">
         <v>3.270604245057616</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.03181751000157859</v>
+        <v>0.02483749757979744</v>
       </c>
       <c r="D3">
-        <v>0.9746213644065285</v>
+        <v>0.9804084972311169</v>
       </c>
       <c r="E3">
         <v>3.270604245057616</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3153866346468762</v>
+        <v>0.3072838632568332</v>
       </c>
       <c r="D4">
-        <v>0.7525073075741497</v>
+        <v>0.7615172468692648</v>
       </c>
       <c r="E4">
         <v>3.270604245057616</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.4356878879411881</v>
+        <v>-0.410206562334672</v>
       </c>
       <c r="D5">
-        <v>0.6631192000982602</v>
+        <v>0.6856217672391547</v>
       </c>
       <c r="E5">
         <v>3.270604245057616</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2353702543349272</v>
+        <v>0.2130661159223731</v>
       </c>
       <c r="D6">
-        <v>0.8139500746680794</v>
+        <v>0.8332374139446477</v>
       </c>
       <c r="E6">
         <v>3.444794903466219</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.6191387790969141</v>
+        <v>0.7022547868001311</v>
       </c>
       <c r="D7">
-        <v>0.5359089346365709</v>
+        <v>0.4898843377065685</v>
       </c>
       <c r="E7">
         <v>3.444794903466219</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.3519924631503831</v>
+        <v>-0.3310935595467661</v>
       </c>
       <c r="D8">
-        <v>0.7248880870657757</v>
+        <v>0.7437067712476315</v>
       </c>
       <c r="E8">
         <v>3.444794903466219</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3447424401879572</v>
+        <v>0.2771722403643972</v>
       </c>
       <c r="D9">
-        <v>0.7303311860964303</v>
+        <v>0.7842355650058841</v>
       </c>
       <c r="E9">
         <v>3.243821267643312</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5384062792135738</v>
+        <v>-0.4875399770126377</v>
       </c>
       <c r="D10">
-        <v>0.5903679598307863</v>
+        <v>0.630698778436797</v>
       </c>
       <c r="E10">
         <v>3.243821267643312</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.8131125679332792</v>
+        <v>-0.7079446970155765</v>
       </c>
       <c r="D11">
-        <v>0.4162688048297041</v>
+        <v>0.4864129525854146</v>
       </c>
       <c r="E11">
         <v>2.936689824127809</v>
